--- a/ACB/CSTC.xlsx
+++ b/ACB/CSTC.xlsx
@@ -1903,31 +1903,31 @@
         <v>4</v>
       </c>
       <c r="AC7" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="AD7" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="AJ7" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="AL7" t="n">
         <v>4</v>
